--- a/data/flask_output_file.xlsx
+++ b/data/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In the United States, real estate law is the body of law that pertains to the rights and interests in real property. Real estate law covers a wide range of legal topics, including landlord-tenant law, zoning and land use, environmental law, and property rights.</t>
+          <t>Real estate law covers the legal rights and obligations associated with the ownership and use of real property. Real estate law includes a wide range of topics, including landlord-tenant law, zoning and land use, and homeowners' associations.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions because it deals specifically with the laws surrounding the buying, selling, and renting of property.</t>
+          <t>Real estate law is unique because it is a fusion of state and common law. Not only do real estate lawyers have to know the relevant statutes and case law in their state, but they must also be familiar with the common law principles that apply to real property transactions.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A real estate lawyer is a lawyer who specializes in the practice of real estate law.</t>
+          <t>Real estate lawyers represent their clients in all matters related to the purchase, sale, ownership, and use of real property. They may also represent landlords and tenants in disputes related to the lease or rental of real property.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>The ability to specialize in any given area of law is helpful in the legal profession because it allows attorneys to focus their energies on a specific area of law, which usually leads to a better understanding of that area of law. In the case of real estate law, specialization can lead to a better understanding of the complexities of real estate transactions and the ability to better represent clients in those transactions.</t>
+          <t>Learning real estate law can help attorneys specialize in a certain area of law. This can make them more marketable to potential employers and help them build a more successful career. Real estate law can be complex, and attorneys who understand it can use their knowledge to better represent their clients.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>There are many types of areas in real estate law that transcription can be useful. This includes, but is not limited to, contract law, property law, and lease law.</t>
+          <t>Transcription in real estate law can be useful in a number of different areas, including but not limited to: title examination, escrow, mortgage loan processing, real estate closings, and evictions.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways real estate lawyers can utilize transcription. For example, they can use it to create a written record of meetings, conferences, and phone calls. Additionally, they can use transcription to create a written record of their own notes, which can be useful for reference and review. Additionally, transcription can be used to create a written record of documents such as leases, contracts, and deed transfers.</t>
+          <t>There are many ways that real estate lawyers can utilize transcription. For example, real estate lawyers can use transcription to create a written record of meetings, memos, or conversations. This written record can be used to provide legal counsel, to develop strategy, or to support claims in court. Additionally, transcription can be used to create a record of real estate inspections, or to document real estate transactions.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,14 +762,14 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>In the United States, real estate law is the body of law that pertains to the rights and interests in real property. Real estate law covers a wide range of legal topics, including landlord-tenant law, zoning and land use, environmental law, and property rights. Real estate law is different from other legal professions because it deals specifically with the laws surrounding the buying, selling, and renting of property. A real estate lawyer is a lawyer who specializes in the practice of real estate law. The ability to specialize in any given area of law is helpful in the legal profession because it allows attorneys to focus their energies on a specific area of law, which usually leads to a better understanding of that area of law. In the case of real estate law, specialization can lead to a better understanding of the complexities of real estate transactions and the ability to better represent clients in those transactions. There are many types of areas in real estate law that transcription can be useful. This includes, but is not limited to, contract law, property law, and lease law. There are many ways real estate lawyers can utilize transcription. For example, they can use it to create a written record of meetings, conferences, and phone calls. Additionally, they can use transcription to create a written record of their own notes, which can be useful for reference and review. Additionally, transcription can be used to create a written record of documents such as leases, contracts, and deed transfers.</t>
+          <t>Real estate law covers the legal rights and obligations associated with the ownership and use of real property. Real estate law includes a wide range of topics, including landlord-tenant law, zoning and land use, and homeowners' associations. Real estate law is unique because it is a fusion of state and common law. Not only do real estate lawyers have to know the relevant statutes and case law in their state, but they must also be familiar with the common law principles that apply to real property transactions. Real estate lawyers represent their clients in all matters related to the purchase, sale, ownership, and use of real property. They may also represent landlords and tenants in disputes related to the lease or rental of real property. Learning real estate law can help attorneys specialize in a certain area of law. This can make them more marketable to potential employers and help them build a more successful career. Real estate law can be complex, and attorneys who understand it can use their knowledge to better represent their clients. Transcription in real estate law can be useful in a number of different areas, including but not limited to: title examination, escrow, mortgage loan processing, real estate closings, and evictions. There are many ways that real estate lawyers can utilize transcription. For example, real estate lawyers can use transcription to create a written record of meetings, memos, or conversations. This written record can be used to provide legal counsel, to develop strategy, or to support claims in court. Additionally, transcription can be used to create a record of real estate inspections, or to document real estate transactions.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Legal transcription services are becoming increasingly important for real estate lawyers in the United States. Real estate law covers a wide range of legal topics, and having access to reliable and accurate transcription services can be invaluable. Transcription services can provide real estate lawyers with the ability to accurately record meetings, conferences, phone calls, notes, and documents such as leases, contracts, and deed transfers.
-Capital Typing provides real estate lawyers with the transcription services they need to be successful in their practice. With our experienced transcriptionists, real estate lawyers can be sure that their notes, meetings, and documents are accurately transcribed. Our transcriptionists understand the complexities of real estate transactions, and they can provide lawyers with a comprehensive, detailed transcription that captures all the necessary information.
-Real estate lawyers can benefit from Capital Typing’s transcription services in a variety of ways. With our transcription services, lawyers can easily create a written record of their notes and documents, which can be used for future reference</t>
+          <t>Real estate lawyers play a critical role in helping their clients navigate the legal complexities of the real estate world. To ensure their clients are fully protected and to provide the best possible legal advice, it is important that real estate lawyers have an understanding of the law and how it applies to the particular situation. Transcription services can be a valuable asset to real estate lawyers in a number of different ways.
+Transcription services can be used by real estate lawyers to create a written record of meetings, memos, and conversations. By having a documented record of these events, real estate lawyers can better advise their clients and provide them with the necessary information to support any legal claims. Additionally, transcription services can be used to document real estate inspections and transactions. This is especially helpful as it allows lawyers to quickly review all the information and data related to the real estate transaction.
+Transcription services can also be used to create a written record of leases or rental agreements. This is essential as it creates a</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is a person who uses a machine to record what is being said in a court of law.</t>
+          <t>A court reporter is a professional who specializes in creating and maintaining a written record of court proceedings. Court reporters play an important role in the legal process by providing an accurate and complete record of what was said during a court proceeding. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is different from other legal professionals in that they are responsible for creating a written transcript of court proceedings. This transcript can be used as a record of the proceedings if there is an appeal or if the case goes to trial. Court reporters typically use stenography to create their transcript, which is a system of symbols that represents speech.</t>
+          <t>A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting. This record may be used to provide a transcript of the proceedings if necessary. Other legal professionals, such as lawyers and paralegals, may be responsible for different aspects of the legal process.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>There are many ways in which court reporters can utilize legal transcription services. Court reporters can transcription services to create transcripts of depositions, court hearings, interviews, and other legal proceedings. Additionally, transcription services can be used to create transcripts of documents, such as wills, contracts, and other legal documents.</t>
+          <t>There are legal transcription services that cater specifically to court reporters. These services can provide them with accurate transcripts of court proceedings that they can then use to prepare reports.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -851,14 +851,14 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is a person who uses a machine to record what is being said in a court of law. A court reporter is different from other legal professionals in that they are responsible for creating a written transcript of court proceedings. This transcript can be used as a record of the proceedings if there is an appeal or if the case goes to trial. Court reporters typically use stenography to create their transcript, which is a system of symbols that represents speech. There are many ways in which court reporters can utilize legal transcription services. Court reporters can transcription services to create transcripts of depositions, court hearings, interviews, and other legal proceedings. Additionally, transcription services can be used to create transcripts of documents, such as wills, contracts, and other legal documents.</t>
+          <t>A court reporter is a professional who specializes in creating and maintaining a written record of court proceedings. Court reporters play an important role in the legal process by providing an accurate and complete record of what was said during a court proceeding. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings. A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting. This record may be used to provide a transcript of the proceedings if necessary. Other legal professionals, such as lawyers and paralegals, may be responsible for different aspects of the legal process. There are legal transcription services that cater specifically to court reporters. These services can provide them with accurate transcripts of court proceedings that they can then use to prepare reports.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Court reporters are a vital part of the legal system, providing an accurate and reliable record of court proceedings. Using a machine, court reporters create a written transcript of court proceedings that can be used in the event of an appeal or trial. To create these transcripts, court reporters often use a system of symbols known as stenography.
-Legal transcription services can be a great asset to court reporters in creating transcripts of not only court hearings and depositions, but also of documents, such as wills, contracts, and other legal documents. Capital Typing provides a suite of legal transcription services designed specifically for court reporters.
-Our legal transcription services for court reporters are tailored to meet your needs. We understand that accuracy is paramount when creating transcripts, so our team of experienced transcriptionists and editors will ensure that your transcripts are as accurate as possible. We also understand that court reporters often have tight deadlines, so our transcriptionists and editors will work quickly and efficiently to ensure that your transcripts are delivered on</t>
+          <t>Legal transcription services are essential for court reporters in order to provide accurate transcripts of court proceedings. Capital Typing is proud to offer these services to court reporters so that they can create a verbatim record of court proceedings.
+Court reporters are a vital part of the legal process, as they create an accurate and complete written record of court proceedings. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings. A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting, which can then be used to provide a transcript of the proceedings if necessary.
+Legal transcription services from Capital Typing provide court reporters with transcripts of court proceedings that are accurate and up to date. Our services are tailored specifically to court reporters and their needs, so that they can have reliable access to transcripts of court proceedings. Our staff is highly trained and experienced in the legal transcription field,</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,9 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>Services
-As a ll result of Technovate Transcriptions Market Place, it’s being possible to get the very best deal on medical transcription services. Now, once you can outsource transcription services to a firm that has their very own medical transcription marketplace to pick from, you’ll never need to worry around feasible cost escalation. In the present business scenario, the majority of the companies prefer to choose outsourced services. Technical transcription services can be provided for technical meetings and conferences. Through a procedure of Mori Polls conducted between September and November 2006, over a thousand firms from the UK were requested to rate the two primary cabin crew services they receive. Volusion Services are provided by the organization with similar capabilities of other companies. SaaS services can on average save an organization up to 70% compared with the web site growth costs most businesses experience. The Automation Services pulling concepts in the worldwide IT world, the majority of the Enterprises believe either target for improving their company agility or</t>
+Outsourcing transcription is becoming more popular as more companies realize the benefits of working with a professional transcription company. Perhaps the most significant benefit of using a professional transcription company is that it reduces transcription costs. Of course, there is always a balance that has to be struck between preserving the best quality possible and saving money. However, when you work with an external company you are almost certainly going to reduce the resides that you are spending internally.
+When you do choose to outsource your transcription services, you are likely to experience the following benefits:
+You will save time – in general, transcription companies will be able to transcribe audio files faster than you will be able to internally. This is because you are very likely to be dealing with staff who are highly experienced in typing and with fast internet speeds and word processing software. In addition, you may also receive a software that helps you to edit your files. This goes a long way to reducing the time you spend updating transcription.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -881,10 +883,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>for your business
-Transcription is a process of transforming one form of communication to another form of communication. The primary source of this process includes audio, video or even paper documents. The process of transcribing the said sources involves listening to the audios, taking down notes, and finally, writing up the contents accordingly. Transcription involves the translation or interpretation of the data from its original medium. The transcription process includes a lot of minute and accurate work, which requires utmost concentration.
-Positive points on outsourcing transcription services
-Firstly, a business owner can save lots of money with outsourcing transcription services. Usually, transcription services are utilized by corporations, accounting firms, medical facilities, fiscal units, legal facilities, educational facilities, non-profit associations, tourism industry, media industry, news agencies, software firms, research teams, and so forth. The coverage of transcription services is not just restricted to those entities. Individual professionals from different fields have started using the quality of transcription services to make successful</t>
+          <t>."
+There are many benefits of outsourcing transcription services. One benefit is that it can save you time. When you outsource transcription services, you don't have to spend time transcribing the audio yourself. This can free up a lot of your time so that you can focus on other tasks.
+Another benefit of outsourcing transcription services is that it can save you money. If you were to transcribe the audio yourself, you would have to pay for the audio recording, the transcription software, and your own time. When you outsource transcription services, you only have to pay for the transcription itself. This can save you a lot of money in the long run.
+Outsourcing transcription services can also help you to get more accurate transcriptions. When you outsource transcription services, the transcriber will usually have experience transcribing audio. This means that they will be able to produce more accurate transcriptions than you would be able to achieve on your own.
+Finally, outsourcing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -894,8 +897,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Services
-It is a common practice of transcription companies to be aware of change and upgrade the software and transcription tools so that they can offer up to par services to their clients. It is important for you to know that a reliable company will know about the technological advances and intelligence implementation to match already existed methods with the latest technological modules.</t>
+          <t>Services.
+Technological advancements often make us question everything we knew before. Whether we’re negotiators converge in a meeting room, taking dictate calls with a tape recorder, or digitizing an archivable Ministry of Labour database licit files into today’s document management systems and servers, technology has indeed bolstered business productivity.
+One of the areas where technology has emerged most significantly is transcription services. Over the years, transcription services have expanded to accommodate different types of media and input. At first, a simple re-typing of records and legal documents was considered an improvement but today, transcription is now a necessary part of online workflows. The Internet has created a robust marketplace for transcription services, with an ample variety of affordable companies that now provide transcription services.
+There are two main types of transcription services that have developed over time. These include audio transcription and video transcription.
+Audio Transcription
+Audio transcription was one of the first types of transcription to gain popularity</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -905,8 +912,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Services
-Every medical facility must follow the legal requirement for data security. When you outsource transcription services, these companies are also bound by the same regulations. During the hiring process, evaluate each transcription company thoroughly and verify that they have implemented security protocols for all the data. Know that the team handling your documents is properly trained about the legal regulations of data privacy. You can further require each person to sign a confidentiality agreement with the facility.</t>
+          <t>prolongs transcription pleasantly. For the most part, the expert administrations procure best in class initial examples like electronic encryption and physical security. For complete information Government ruins Andrei Nikolishin, Russian Olympic gold medalist on charges of corruption about rushes of being secure you can talk about your records the way in which you need.
+Best Voice Recorder Reviews &amp; Guide Best Voice Recorder Reviews 2016keys are aPsychiatrist major wellspring of data gathering and they holdBest Voice Recorder for Lecturesmyriad importance. The main point of giving talks and lectures is to communicate the data to your audience. Most of the lectures also contain certain important news or new information that can be required to be stored if you want to access it at a later time.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,20 +962,26 @@
       <c r="AR4" t="inlineStr">
         <is>
           <t>Services
-As a ll result of Technovate Transcriptions Market Place, it’s being possible to get the very best deal on medical transcription services. Now, once you can outsource transcription services to a firm that has their very own medical transcription marketplace to pick from, you’ll never need to worry around feasible cost escalation. In the present business scenario, the majority of the companies prefer to choose outsourced services. Technical transcription services can be provided for technical meetings and conferences. Through a procedure of Mori Polls conducted between September and November 2006, over a thousand firms from the UK were requested to rate the two primary cabin crew services they receive. Volusion Services are provided by the organization with similar capabilities of other companies. SaaS services can on average save an organization up to 70% compared with the web site growth costs most businesses experience. The Automation Services pulling concepts in the worldwide IT world, the majority of the Enterprises believe either target for improving their company agility or for your business
-Transcription is a process of transforming one form of communication to another form of communication. The primary source of this process includes audio, video or even paper documents. The process of transcribing the said sources involves listening to the audios, taking down notes, and finally, writing up the contents accordingly. Transcription involves the translation or interpretation of the data from its original medium. The transcription process includes a lot of minute and accurate work, which requires utmost concentration.
-Positive points on outsourcing transcription services
-Firstly, a business owner can save lots of money with outsourcing transcription services. Usually, transcription services are utilized by corporations, accounting firms, medical facilities, fiscal units, legal facilities, educational facilities, non-profit associations, tourism industry, media industry, news agencies, software firms, research teams, and so forth. The coverage of transcription services is not just restricted to those entities. Individual professionals from different fields have started using the quality of transcription services to make successful Services
-It is a common practice of transcription companies to be aware of change and upgrade the software and transcription tools so that they can offer up to par services to their clients. It is important for you to know that a reliable company will know about the technological advances and intelligence implementation to match already existed methods with the latest technological modules. Services
-Every medical facility must follow the legal requirement for data security. When you outsource transcription services, these companies are also bound by the same regulations. During the hiring process, evaluate each transcription company thoroughly and verify that they have implemented security protocols for all the data. Know that the team handling your documents is properly trained about the legal regulations of data privacy. You can further require each person to sign a confidentiality agreement with the facility.</t>
+Outsourcing transcription is becoming more popular as more companies realize the benefits of working with a professional transcription company. Perhaps the most significant benefit of using a professional transcription company is that it reduces transcription costs. Of course, there is always a balance that has to be struck between preserving the best quality possible and saving money. However, when you work with an external company you are almost certainly going to reduce the resides that you are spending internally.
+When you do choose to outsource your transcription services, you are likely to experience the following benefits:
+You will save time – in general, transcription companies will be able to transcribe audio files faster than you will be able to internally. This is because you are very likely to be dealing with staff who are highly experienced in typing and with fast internet speeds and word processing software. In addition, you may also receive a software that helps you to edit your files. This goes a long way to reducing the time you spend updating transcription. ."
+There are many benefits of outsourcing transcription services. One benefit is that it can save you time. When you outsource transcription services, you don't have to spend time transcribing the audio yourself. This can free up a lot of your time so that you can focus on other tasks.
+Another benefit of outsourcing transcription services is that it can save you money. If you were to transcribe the audio yourself, you would have to pay for the audio recording, the transcription software, and your own time. When you outsource transcription services, you only have to pay for the transcription itself. This can save you a lot of money in the long run.
+Outsourcing transcription services can also help you to get more accurate transcriptions. When you outsource transcription services, the transcriber will usually have experience transcribing audio. This means that they will be able to produce more accurate transcriptions than you would be able to achieve on your own.
+Finally, outsourcing Services.
+Technological advancements often make us question everything we knew before. Whether we’re negotiators converge in a meeting room, taking dictate calls with a tape recorder, or digitizing an archivable Ministry of Labour database licit files into today’s document management systems and servers, technology has indeed bolstered business productivity.
+One of the areas where technology has emerged most significantly is transcription services. Over the years, transcription services have expanded to accommodate different types of media and input. At first, a simple re-typing of records and legal documents was considered an improvement but today, transcription is now a necessary part of online workflows. The Internet has created a robust marketplace for transcription services, with an ample variety of affordable companies that now provide transcription services.
+There are two main types of transcription services that have developed over time. These include audio transcription and video transcription.
+Audio Transcription
+Audio transcription was one of the first types of transcription to gain popularity prolongs transcription pleasantly. For the most part, the expert administrations procure best in class initial examples like electronic encryption and physical security. For complete information Government ruins Andrei Nikolishin, Russian Olympic gold medalist on charges of corruption about rushes of being secure you can talk about your records the way in which you need.
+Best Voice Recorder Reviews &amp; Guide Best Voice Recorder Reviews 2016keys are aPsychiatrist major wellspring of data gathering and they holdBest Voice Recorder for Lecturesmyriad importance. The main point of giving talks and lectures is to communicate the data to your audience. Most of the lectures also contain certain important news or new information that can be required to be stored if you want to access it at a later time.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services has become a popular option for many businesses and individuals, as it offers a cost-effective way to get accurate, timely results. Transcription is the process of converting audio, video, or paper documents into another form of communication. It requires precision and concentration, which makes it a difficult task to do on your own.
-There are many benefits to outsourcing transcription services, such as cost savings, access to the latest technology and tools, and adherence to legal requirements.
-First, outsourcing transcription services can save businesses a lot of money. Transcription services are used by a range of organisations, including accounting firms, medical facilities, legal firms, educational institutions, non-profit organisations, media companies, news outlets, software companies and research teams.
-Secondly, when you outsource transcription services, you can access the latest technology and tools. Transcription companies understand the need to stay up-to-date with the latest advances in technology and use the latest tools</t>
+          <t>Outsourcing transcription services is becoming increasingly popular as more companies recognize the benefits of working with a professional transcription company. One of the most obvious advantages of using an external company is the cost savings that can be achieved. Of course, there is a balance between quality and cost savings, but more often than not, outsourcing transcription services will save you money compared to doing it in-house.
+In addition to saving money, outsourcing transcription services can also save you time. Professional transcription services can typically transcribe audio files faster than you could in-house, as the transcribers are experienced and have access to fast internet speeds and word processing software. Additionally, you may also receive software that can help you to edit your files, which further reduces the time you spend on transcription.
+Apart from these benefits, outsourcing transcription services can also provide you with more accurate transcriptions. Professional transcribers are usually experienced in transcribing audio, meaning they can produce more accurate transcriptions than you</t>
         </is>
       </c>
     </row>

--- a/data/flask_output_file.xlsx
+++ b/data/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law covers the legal rights and obligations associated with the ownership and use of real property. Real estate law includes a wide range of topics, including landlord-tenant law, zoning and land use, and homeowners' associations.</t>
+          <t>Real estate law is a branch of law that deals with the legal rights and duties of people who buy, sell, own, or lease land and buildings.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is unique because it is a fusion of state and common law. Not only do real estate lawyers have to know the relevant statutes and case law in their state, but they must also be familiar with the common law principles that apply to real property transactions.</t>
+          <t>Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with the purchase, sale, and development of land and property, while other legal professions may deal with other areas of the law. Additionally, real estate law often requires specific knowledge of local zoning laws and regulations, which other legal professions may not require. Finally, real estate law may involve more contact with clients and potential clients than other legal professions, as real estate transactions often involve a significant amount of negotiation and face-to-face interaction.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Real estate lawyers represent their clients in all matters related to the purchase, sale, ownership, and use of real property. They may also represent landlords and tenants in disputes related to the lease or rental of real property.</t>
+          <t>Most real estate lawyers do a variety of work for clients, such as helping them purchase property, preparing and reviewing purchase contracts, assisting with mortgages and other financing, overseeing real estate closings, and handling evictions and other landlord-tenant disputes. Some real estate lawyers also handle zoning issues and litigation, such as eminent domain cases.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Learning real estate law can help attorneys specialize in a certain area of law. This can make them more marketable to potential employers and help them build a more successful career. Real estate law can be complex, and attorneys who understand it can use their knowledge to better represent their clients.</t>
+          <t>The legal profession can be extremely competitive, and specialization can be one way to set yourself apart from other lawyers. Real estate law is a specialized area of law that deals with the sale, purchase, ownership, and use of real property. Because real estate transactions can be complex, a lawyer who specializes in real estate law can help their clients navigate the legal process and ensure that their rights are protected.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Transcription in real estate law can be useful in a number of different areas, including but not limited to: title examination, escrow, mortgage loan processing, real estate closings, and evictions.</t>
+          <t>All types of legal transcription are useful in real estate law. This includes dictation of letters, memos, court proceedings, and client meetings.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways that real estate lawyers can utilize transcription. For example, real estate lawyers can use transcription to create a written record of meetings, memos, or conversations. This written record can be used to provide legal counsel, to develop strategy, or to support claims in court. Additionally, transcription can be used to create a record of real estate inspections, or to document real estate transactions.</t>
+          <t>There are many ways that transcription can be used in real estate law. For example, transcription can be used to create a record of conversations between parties involved in a real estate transaction, such as the buyer, seller, broker, and loan officer. Transcription can also be used to create a record of inspections of a property, or to create a record of meetings between parties involved in a real estate dispute.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,14 +762,15 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law covers the legal rights and obligations associated with the ownership and use of real property. Real estate law includes a wide range of topics, including landlord-tenant law, zoning and land use, and homeowners' associations. Real estate law is unique because it is a fusion of state and common law. Not only do real estate lawyers have to know the relevant statutes and case law in their state, but they must also be familiar with the common law principles that apply to real property transactions. Real estate lawyers represent their clients in all matters related to the purchase, sale, ownership, and use of real property. They may also represent landlords and tenants in disputes related to the lease or rental of real property. Learning real estate law can help attorneys specialize in a certain area of law. This can make them more marketable to potential employers and help them build a more successful career. Real estate law can be complex, and attorneys who understand it can use their knowledge to better represent their clients. Transcription in real estate law can be useful in a number of different areas, including but not limited to: title examination, escrow, mortgage loan processing, real estate closings, and evictions. There are many ways that real estate lawyers can utilize transcription. For example, real estate lawyers can use transcription to create a written record of meetings, memos, or conversations. This written record can be used to provide legal counsel, to develop strategy, or to support claims in court. Additionally, transcription can be used to create a record of real estate inspections, or to document real estate transactions.</t>
+          <t>Real estate law is a branch of law that deals with the legal rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with the purchase, sale, and development of land and property, while other legal professions may deal with other areas of the law. Additionally, real estate law often requires specific knowledge of local zoning laws and regulations, which other legal professions may not require. Finally, real estate law may involve more contact with clients and potential clients than other legal professions, as real estate transactions often involve a significant amount of negotiation and face-to-face interaction. Most real estate lawyers do a variety of work for clients, such as helping them purchase property, preparing and reviewing purchase contracts, assisting with mortgages and other financing, overseeing real estate closings, and handling evictions and other landlord-tenant disputes. Some real estate lawyers also handle zoning issues and litigation, such as eminent domain cases. The legal profession can be extremely competitive, and specialization can be one way to set yourself apart from other lawyers. Real estate law is a specialized area of law that deals with the sale, purchase, ownership, and use of real property. Because real estate transactions can be complex, a lawyer who specializes in real estate law can help their clients navigate the legal process and ensure that their rights are protected. All types of legal transcription are useful in real estate law. This includes dictation of letters, memos, court proceedings, and client meetings. There are many ways that transcription can be used in real estate law. For example, transcription can be used to create a record of conversations between parties involved in a real estate transaction, such as the buyer, seller, broker, and loan officer. Transcription can also be used to create a record of inspections of a property, or to create a record of meetings between parties involved in a real estate dispute.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate lawyers play a critical role in helping their clients navigate the legal complexities of the real estate world. To ensure their clients are fully protected and to provide the best possible legal advice, it is important that real estate lawyers have an understanding of the law and how it applies to the particular situation. Transcription services can be a valuable asset to real estate lawyers in a number of different ways.
-Transcription services can be used by real estate lawyers to create a written record of meetings, memos, and conversations. By having a documented record of these events, real estate lawyers can better advise their clients and provide them with the necessary information to support any legal claims. Additionally, transcription services can be used to document real estate inspections and transactions. This is especially helpful as it allows lawyers to quickly review all the information and data related to the real estate transaction.
-Transcription services can also be used to create a written record of leases or rental agreements. This is essential as it creates a</t>
+          <t>Real estate lawyers deal with complex transactions and legal processes, so having reliable transcription services can be invaluable. Capital Typing provides legal transcription services specifically for real estate attorneys. With our services, real estate attorneys can have all their conversations, letters, memos, court proceedings, and client meetings transcribed accurately and efficiently. 
+Legal transcription is an important part of real estate law. It allows lawyers to have a record of conversations between parties involved in a real estate transaction, as well as inspections of a property and meetings between parties involved in a real estate dispute. With Capital Typing's services, attorneys can have all of this information transcribed accurately and quickly.
+We understand the importance of accuracy and confidentiality in the real estate field. That's why all of our transcriptionists are experienced and knowledgeable in real estate law, so they can accurately transcribe conversations and documents. We also have strict privacy and security protocols in place, so your information is always kept secure. 
+At Capital</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is a professional who specializes in creating and maintaining a written record of court proceedings. Court reporters play an important role in the legal process by providing an accurate and complete record of what was said during a court proceeding. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings.</t>
+          <t>A court reporter is a legal professional who uses two-way shorthand to create a word-for-word transcript of courtroom proceedings. Court reporters also work in other settings, such as business meetings and conferences, to create transcripts of the proceedings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +792,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting. This record may be used to provide a transcript of the proceedings if necessary. Other legal professionals, such as lawyers and paralegals, may be responsible for different aspects of the legal process.</t>
+          <t>While other legal professionals may work in courtrooms, court reporters are the only professionals who create transcripts of court proceedings. Court reporters use a stenograph machine, which uses a system of keys to record spoken words, to create a verbatim record of proceedings.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -801,7 +802,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>There are legal transcription services that cater specifically to court reporters. These services can provide them with accurate transcripts of court proceedings that they can then use to prepare reports.</t>
+          <t>Court reporters can utilize legal transcription services in order to have their court proceedings transcribed into written form. This can be helpful in a number of ways, including creating a written record of the proceedings, making it easier to review the transcript later on, and providing a written transcript to parties who were not able to attend the court proceedings.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -851,14 +852,14 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is a professional who specializes in creating and maintaining a written record of court proceedings. Court reporters play an important role in the legal process by providing an accurate and complete record of what was said during a court proceeding. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings. A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting. This record may be used to provide a transcript of the proceedings if necessary. Other legal professionals, such as lawyers and paralegals, may be responsible for different aspects of the legal process. There are legal transcription services that cater specifically to court reporters. These services can provide them with accurate transcripts of court proceedings that they can then use to prepare reports.</t>
+          <t>A court reporter is a legal professional who uses two-way shorthand to create a word-for-word transcript of courtroom proceedings. Court reporters also work in other settings, such as business meetings and conferences, to create transcripts of the proceedings. While other legal professionals may work in courtrooms, court reporters are the only professionals who create transcripts of court proceedings. Court reporters use a stenograph machine, which uses a system of keys to record spoken words, to create a verbatim record of proceedings. Court reporters can utilize legal transcription services in order to have their court proceedings transcribed into written form. This can be helpful in a number of ways, including creating a written record of the proceedings, making it easier to review the transcript later on, and providing a written transcript to parties who were not able to attend the court proceedings.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Legal transcription services are essential for court reporters in order to provide accurate transcripts of court proceedings. Capital Typing is proud to offer these services to court reporters so that they can create a verbatim record of court proceedings.
-Court reporters are a vital part of the legal process, as they create an accurate and complete written record of court proceedings. This record can be used by the parties involved in the case to review what occurred during the proceeding and to prepare for subsequent proceedings. A court reporter is responsible for creating a verbatim record of proceedings in a court of law or other legal setting, which can then be used to provide a transcript of the proceedings if necessary.
-Legal transcription services from Capital Typing provide court reporters with transcripts of court proceedings that are accurate and up to date. Our services are tailored specifically to court reporters and their needs, so that they can have reliable access to transcripts of court proceedings. Our staff is highly trained and experienced in the legal transcription field,</t>
+          <t>Legal transcription services are an invaluable tool for court reporters and other legal professionals. Court reporters are the only legal professionals who use two-way shorthand to create a word-for-word transcript of courtroom proceedings. However, court reporters are also often called upon to create transcripts of proceedings in other settings such as business meetings and conferences. In order to do so, they use a stenograph machine, which employs a system of keys to record spoken words, to create a verbatim record of the proceedings.
+For court reporters, legal transcription services can be extremely beneficial. Having your court proceedings transcribed into written form can help in a variety of ways. First and foremost, it creates an easily accessible written record of the proceedings which can be accessed later on for review. Additionally, it can also provide a written transcript to parties who were unable to attend the court proceedings.
+Capital Typing provides comprehensive legal transcription services for court reporters. We understand the importance of accuracy and detail in court</t>
         </is>
       </c>
     </row>
@@ -870,39 +871,46 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Services to Your Company
+There are many reasons why a company decides to outsource its transcription. However, the overall main goal is to save on costs. With an expertise team in transcription, you can be assured quality with the least amount of time and effort out of your employees. The flexibility of our team can enable you to keep up with your business goals while leaving all transcription needs to us.
+We Offer Various Types of Transcription Services for Businesses
+Transcription is an important service that companies provide. Finest Typists Transcription services allow businesses to produce quality documents that can be legally binding. We offer all types of transcription service style that businesses require. Here is a table with all the services that we currently provide.
+Type Level of Accuracy Transcription Services Type I High Rate Medication Administration Operations type II Medium Rate Courtroom and Teleconference type III Low Rate Students’ note and Group discussio
+Does Your Business Need Transcription Services?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Exploring the benefits of outsourcing transcription services</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>to market-leader Martech Cube for your content marketing efforts, podcasts, webinars and tutorials.
+ steadman</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Embracing Technological Advances with Outsourcing Transcription</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Services
-Outsourcing transcription is becoming more popular as more companies realize the benefits of working with a professional transcription company. Perhaps the most significant benefit of using a professional transcription company is that it reduces transcription costs. Of course, there is always a balance that has to be struck between preserving the best quality possible and saving money. However, when you work with an external company you are almost certainly going to reduce the resides that you are spending internally.
-When you do choose to outsource your transcription services, you are likely to experience the following benefits:
-You will save time – in general, transcription companies will be able to transcribe audio files faster than you will be able to internally. This is because you are very likely to be dealing with staff who are highly experienced in typing and with fast internet speeds and word processing software. In addition, you may also receive a software that helps you to edit your files. This goes a long way to reducing the time you spend updating transcription.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Exploring the benefits of outsourcing transcription services</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>."
-There are many benefits of outsourcing transcription services. One benefit is that it can save you time. When you outsource transcription services, you don't have to spend time transcribing the audio yourself. This can free up a lot of your time so that you can focus on other tasks.
-Another benefit of outsourcing transcription services is that it can save you money. If you were to transcribe the audio yourself, you would have to pay for the audio recording, the transcription software, and your own time. When you outsource transcription services, you only have to pay for the transcription itself. This can save you a lot of money in the long run.
-Outsourcing transcription services can also help you to get more accurate transcriptions. When you outsource transcription services, the transcriber will usually have experience transcribing audio. This means that they will be able to produce more accurate transcriptions than you would be able to achieve on your own.
-Finally, outsourcing</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Embracing Technological Advances with Outsourcing Transcription</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Services.
-Technological advancements often make us question everything we knew before. Whether we’re negotiators converge in a meeting room, taking dictate calls with a tape recorder, or digitizing an archivable Ministry of Labour database licit files into today’s document management systems and servers, technology has indeed bolstered business productivity.
-One of the areas where technology has emerged most significantly is transcription services. Over the years, transcription services have expanded to accommodate different types of media and input. At first, a simple re-typing of records and legal documents was considered an improvement but today, transcription is now a necessary part of online workflows. The Internet has created a robust marketplace for transcription services, with an ample variety of affordable companies that now provide transcription services.
-There are two main types of transcription services that have developed over time. These include audio transcription and video transcription.
-Audio Transcription
-Audio transcription was one of the first types of transcription to gain popularity</t>
+Short-Term Tech Fixes Won't Fix the Nursing Shortage | Staffing Industry Analysts
+golden-standard-2019- Enablement, border2 point, AR
+Get Best Audio Transcription Services
+Banner Document Management
+langTrans Demo CD
+datascientists4health
+Best Medical Transcription Services
+Index of /wp-content/uploads/2016/07 .
+We Achieve 99.99% Accuracy!
+Open Briefing: Dry run: gamifying transparency to test interesting nuggets from intelligence reports
+Next time you would like a quote of accurate transcription services at the lowest price per minute, give me a call at 1 (877) 363 7399 or email me Harish ...
+Voicing's an essential part of your performance.
+Our high audio transcriptions are the state of art as well as it has been reviewed by technological expert for leave no error to protect your documents ...</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -912,8 +920,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>prolongs transcription pleasantly. For the most part, the expert administrations procure best in class initial examples like electronic encryption and physical security. For complete information Government ruins Andrei Nikolishin, Russian Olympic gold medalist on charges of corruption about rushes of being secure you can talk about your records the way in which you need.
-Best Voice Recorder Reviews &amp; Guide Best Voice Recorder Reviews 2016keys are aPsychiatrist major wellspring of data gathering and they holdBest Voice Recorder for Lecturesmyriad importance. The main point of giving talks and lectures is to communicate the data to your audience. Most of the lectures also contain certain important news or new information that can be required to be stored if you want to access it at a later time.</t>
+          <t>Services
+Any business looking to outsource transcription services, whether it be legal transcription services or medical transcription services, wants to know what measures are in place to protect their data security and confidentiality. There are a variety of ways that your transcription company can protect your data, including:</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -961,27 +969,34 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Services
-Outsourcing transcription is becoming more popular as more companies realize the benefits of working with a professional transcription company. Perhaps the most significant benefit of using a professional transcription company is that it reduces transcription costs. Of course, there is always a balance that has to be struck between preserving the best quality possible and saving money. However, when you work with an external company you are almost certainly going to reduce the resides that you are spending internally.
-When you do choose to outsource your transcription services, you are likely to experience the following benefits:
-You will save time – in general, transcription companies will be able to transcribe audio files faster than you will be able to internally. This is because you are very likely to be dealing with staff who are highly experienced in typing and with fast internet speeds and word processing software. In addition, you may also receive a software that helps you to edit your files. This goes a long way to reducing the time you spend updating transcription. ."
-There are many benefits of outsourcing transcription services. One benefit is that it can save you time. When you outsource transcription services, you don't have to spend time transcribing the audio yourself. This can free up a lot of your time so that you can focus on other tasks.
-Another benefit of outsourcing transcription services is that it can save you money. If you were to transcribe the audio yourself, you would have to pay for the audio recording, the transcription software, and your own time. When you outsource transcription services, you only have to pay for the transcription itself. This can save you a lot of money in the long run.
-Outsourcing transcription services can also help you to get more accurate transcriptions. When you outsource transcription services, the transcriber will usually have experience transcribing audio. This means that they will be able to produce more accurate transcriptions than you would be able to achieve on your own.
-Finally, outsourcing Services.
-Technological advancements often make us question everything we knew before. Whether we’re negotiators converge in a meeting room, taking dictate calls with a tape recorder, or digitizing an archivable Ministry of Labour database licit files into today’s document management systems and servers, technology has indeed bolstered business productivity.
-One of the areas where technology has emerged most significantly is transcription services. Over the years, transcription services have expanded to accommodate different types of media and input. At first, a simple re-typing of records and legal documents was considered an improvement but today, transcription is now a necessary part of online workflows. The Internet has created a robust marketplace for transcription services, with an ample variety of affordable companies that now provide transcription services.
-There are two main types of transcription services that have developed over time. These include audio transcription and video transcription.
-Audio Transcription
-Audio transcription was one of the first types of transcription to gain popularity prolongs transcription pleasantly. For the most part, the expert administrations procure best in class initial examples like electronic encryption and physical security. For complete information Government ruins Andrei Nikolishin, Russian Olympic gold medalist on charges of corruption about rushes of being secure you can talk about your records the way in which you need.
-Best Voice Recorder Reviews &amp; Guide Best Voice Recorder Reviews 2016keys are aPsychiatrist major wellspring of data gathering and they holdBest Voice Recorder for Lecturesmyriad importance. The main point of giving talks and lectures is to communicate the data to your audience. Most of the lectures also contain certain important news or new information that can be required to be stored if you want to access it at a later time.</t>
+          <t>Services to Your Company
+There are many reasons why a company decides to outsource its transcription. However, the overall main goal is to save on costs. With an expertise team in transcription, you can be assured quality with the least amount of time and effort out of your employees. The flexibility of our team can enable you to keep up with your business goals while leaving all transcription needs to us.
+We Offer Various Types of Transcription Services for Businesses
+Transcription is an important service that companies provide. Finest Typists Transcription services allow businesses to produce quality documents that can be legally binding. We offer all types of transcription service style that businesses require. Here is a table with all the services that we currently provide.
+Type Level of Accuracy Transcription Services Type I High Rate Medication Administration Operations type II Medium Rate Courtroom and Teleconference type III Low Rate Students’ note and Group discussio
+Does Your Business Need Transcription Services? to market-leader Martech Cube for your content marketing efforts, podcasts, webinars and tutorials.
+ steadman Services
+Short-Term Tech Fixes Won't Fix the Nursing Shortage | Staffing Industry Analysts
+golden-standard-2019- Enablement, border2 point, AR
+Get Best Audio Transcription Services
+Banner Document Management
+langTrans Demo CD
+datascientists4health
+Best Medical Transcription Services
+Index of /wp-content/uploads/2016/07 .
+We Achieve 99.99% Accuracy!
+Open Briefing: Dry run: gamifying transparency to test interesting nuggets from intelligence reports
+Next time you would like a quote of accurate transcription services at the lowest price per minute, give me a call at 1 (877) 363 7399 or email me Harish ...
+Voicing's an essential part of your performance.
+Our high audio transcriptions are the state of art as well as it has been reviewed by technological expert for leave no error to protect your documents ... Services
+Any business looking to outsource transcription services, whether it be legal transcription services or medical transcription services, wants to know what measures are in place to protect their data security and confidentiality. There are a variety of ways that your transcription company can protect your data, including:</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services is becoming increasingly popular as more companies recognize the benefits of working with a professional transcription company. One of the most obvious advantages of using an external company is the cost savings that can be achieved. Of course, there is a balance between quality and cost savings, but more often than not, outsourcing transcription services will save you money compared to doing it in-house.
-In addition to saving money, outsourcing transcription services can also save you time. Professional transcription services can typically transcribe audio files faster than you could in-house, as the transcribers are experienced and have access to fast internet speeds and word processing software. Additionally, you may also receive software that can help you to edit your files, which further reduces the time you spend on transcription.
-Apart from these benefits, outsourcing transcription services can also provide you with more accurate transcriptions. Professional transcribers are usually experienced in transcribing audio, meaning they can produce more accurate transcriptions than you</t>
+          <t>For any business looking to outsource transcription services, there are a few key things they need to consider. First and foremost, they need to ensure that the transcription company they are using can guarantee the security and confidentiality of their data. This is essential as any information which is shared with the transcription company should remain secure and confidential.
+To ensure that data security and confidentiality are maintained, transcription companies can employ a variety of measures. These can include encrypting data, limiting access to data, and providing contractual agreements that ensure data is not shared with any other parties. Additionally, transcription companies should have protocols in place which allow for the secure storage and retrieval of data, as well as procedures for the secure destruction of data once it is no longer needed.
+The transcription company should also provide accurate and timely transcription services, as this is key to ensuring the business is able to meet its goals. At Finest Typists Transcription, we offer various types of transcription services, ranging from high</t>
         </is>
       </c>
     </row>

--- a/data/flask_output_file.xlsx
+++ b/data/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law is a branch of law that deals with the legal rights and duties of people who buy, sell, own, or lease land and buildings.</t>
+          <t>Real estate law refers to the laws and regulations that govern the ownership, lease, and use of real property. Real estate law generally covers issues such as title registration, zoning, and landlord-tenant rights.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with the purchase, sale, and development of land and property, while other legal professions may deal with other areas of the law. Additionally, real estate law often requires specific knowledge of local zoning laws and regulations, which other legal professions may not require. Finally, real estate law may involve more contact with clients and potential clients than other legal professions, as real estate transactions often involve a significant amount of negotiation and face-to-face interaction.</t>
+          <t>Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with physical property, whereas other legal professions may deal with intangible property, like copyrights or patents. Additionally, real estate law is usually geographically specific, meaning that lawyers need to be familiar with the laws of the jurisdiction in which they practice. Finally, real estate law often involves complex transactions, and lawyers must be able to navigate these transactions in order to protect their clients' interests.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Most real estate lawyers do a variety of work for clients, such as helping them purchase property, preparing and reviewing purchase contracts, assisting with mortgages and other financing, overseeing real estate closings, and handling evictions and other landlord-tenant disputes. Some real estate lawyers also handle zoning issues and litigation, such as eminent domain cases.</t>
+          <t>The answer may vary depending on which country you are asking about, but in general, real estate lawyers are involved in any legal issues related to real estate, such as buying, selling, leasing, and zoning.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>The legal profession can be extremely competitive, and specialization can be one way to set yourself apart from other lawyers. Real estate law is a specialized area of law that deals with the sale, purchase, ownership, and use of real property. Because real estate transactions can be complex, a lawyer who specializes in real estate law can help their clients navigate the legal process and ensure that their rights are protected.</t>
+          <t>There are many aspects to real estate law. By specializing in this area, attorneys can become experts in the field and provide more comprehensive and clients. Additionally, real estate law is a complex and ever-changing area of the law, so specializing in this field can help attorneys stay abreast of the latest changes and developments.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>All types of legal transcription are useful in real estate law. This includes dictation of letters, memos, court proceedings, and client meetings.</t>
+          <t>There are a number of different types of real estate law transcription that can be useful, including contract law, property law, and title law. Transcription can also be useful for other aspects of real estate law, such as zoning law and environmental law.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways that transcription can be used in real estate law. For example, transcription can be used to create a record of conversations between parties involved in a real estate transaction, such as the buyer, seller, broker, and loan officer. Transcription can also be used to create a record of inspections of a property, or to create a record of meetings between parties involved in a real estate dispute.</t>
+          <t>There are various ways in which real estate lawyers can utilize transcription. For instance, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be extremely useful for lawyers who need to review the details of a transaction at a later date. Additionally, transcription can also be used to create a record of all the documents that are signed during a real estate transaction. This can be useful for lawyers who need to review the documents at a later date.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,15 +762,14 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law is a branch of law that deals with the legal rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with the purchase, sale, and development of land and property, while other legal professions may deal with other areas of the law. Additionally, real estate law often requires specific knowledge of local zoning laws and regulations, which other legal professions may not require. Finally, real estate law may involve more contact with clients and potential clients than other legal professions, as real estate transactions often involve a significant amount of negotiation and face-to-face interaction. Most real estate lawyers do a variety of work for clients, such as helping them purchase property, preparing and reviewing purchase contracts, assisting with mortgages and other financing, overseeing real estate closings, and handling evictions and other landlord-tenant disputes. Some real estate lawyers also handle zoning issues and litigation, such as eminent domain cases. The legal profession can be extremely competitive, and specialization can be one way to set yourself apart from other lawyers. Real estate law is a specialized area of law that deals with the sale, purchase, ownership, and use of real property. Because real estate transactions can be complex, a lawyer who specializes in real estate law can help their clients navigate the legal process and ensure that their rights are protected. All types of legal transcription are useful in real estate law. This includes dictation of letters, memos, court proceedings, and client meetings. There are many ways that transcription can be used in real estate law. For example, transcription can be used to create a record of conversations between parties involved in a real estate transaction, such as the buyer, seller, broker, and loan officer. Transcription can also be used to create a record of inspections of a property, or to create a record of meetings between parties involved in a real estate dispute.</t>
+          <t>Real estate law refers to the laws and regulations that govern the ownership, lease, and use of real property. Real estate law generally covers issues such as title registration, zoning, and landlord-tenant rights. Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with physical property, whereas other legal professions may deal with intangible property, like copyrights or patents. Additionally, real estate law is usually geographically specific, meaning that lawyers need to be familiar with the laws of the jurisdiction in which they practice. Finally, real estate law often involves complex transactions, and lawyers must be able to navigate these transactions in order to protect their clients' interests. The answer may vary depending on which country you are asking about, but in general, real estate lawyers are involved in any legal issues related to real estate, such as buying, selling, leasing, and zoning. There are many aspects to real estate law. By specializing in this area, attorneys can become experts in the field and provide more comprehensive and clients. Additionally, real estate law is a complex and ever-changing area of the law, so specializing in this field can help attorneys stay abreast of the latest changes and developments. There are a number of different types of real estate law transcription that can be useful, including contract law, property law, and title law. Transcription can also be useful for other aspects of real estate law, such as zoning law and environmental law. There are various ways in which real estate lawyers can utilize transcription. For instance, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be extremely useful for lawyers who need to review the details of a transaction at a later date. Additionally, transcription can also be used to create a record of all the documents that are signed during a real estate transaction. This can be useful for lawyers who need to review the documents at a later date.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate lawyers deal with complex transactions and legal processes, so having reliable transcription services can be invaluable. Capital Typing provides legal transcription services specifically for real estate attorneys. With our services, real estate attorneys can have all their conversations, letters, memos, court proceedings, and client meetings transcribed accurately and efficiently. 
-Legal transcription is an important part of real estate law. It allows lawyers to have a record of conversations between parties involved in a real estate transaction, as well as inspections of a property and meetings between parties involved in a real estate dispute. With Capital Typing's services, attorneys can have all of this information transcribed accurately and quickly.
-We understand the importance of accuracy and confidentiality in the real estate field. That's why all of our transcriptionists are experienced and knowledgeable in real estate law, so they can accurately transcribe conversations and documents. We also have strict privacy and security protocols in place, so your information is always kept secure. 
-At Capital</t>
+          <t>Real estate law is an important and complex field that requires lawyers to understand the laws in the jurisdiction in which they practice. With such an intricate and ever-changing area of the law, it’s essential for real estate lawyers to stay abreast of the latest changes and developments. For this reason, real estate lawyers can benefit greatly from legal transcription services.
+Legal transcription services are useful for a number of real estate law-related tasks. For instance, transcription can be used to create a record of all the documents that are signed during a real estate transaction. This can help lawyers review and keep track of the details of a transaction at a later date. Additionally, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be useful for lawyers who need to review the details of a transaction at a later date.
+Furthermore, legal transcription services can also be used for other aspects of real estate law, such</t>
         </is>
       </c>
     </row>
@@ -782,7 +781,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who uses two-way shorthand to create a word-for-word transcript of courtroom proceedings. Court reporters also work in other settings, such as business meetings and conferences, to create transcripts of the proceedings.</t>
+          <t>A court reporter is an individual who records and transcribes court proceedings. Court reporters use a special type of shorthand to take down verbatim transcripts of what is said in court. These transcripts can be used as evidence in legal proceedings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -792,7 +791,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While other legal professionals may work in courtrooms, court reporters are the only professionals who create transcripts of court proceedings. Court reporters use a stenograph machine, which uses a system of keys to record spoken words, to create a verbatim record of proceedings.</t>
+          <t>A court reporter is a legal professional who specializes in creating transcripts of court proceedings. Other legal professionals, such as lawyers and judges, may rely on court reporters to create accurate records of what was said during a court case.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -802,7 +801,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Court reporters can utilize legal transcription services in order to have their court proceedings transcribed into written form. This can be helpful in a number of ways, including creating a written record of the proceedings, making it easier to review the transcript later on, and providing a written transcript to parties who were not able to attend the court proceedings.</t>
+          <t>There are a number of ways that court reporters can utilize legal transcription services. First, court reporters can use transcription services to create transcripts of court proceedings. This can be useful for creating a record of what was said during a court case, or for creating a transcript for appeal purposes. Additionally, court reporters can use transcription services to create transcripts of depositions. This can be helpful for creating a record of what was said during a deposition, or for creating a transcript for use in future court proceedings.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -852,14 +851,14 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who uses two-way shorthand to create a word-for-word transcript of courtroom proceedings. Court reporters also work in other settings, such as business meetings and conferences, to create transcripts of the proceedings. While other legal professionals may work in courtrooms, court reporters are the only professionals who create transcripts of court proceedings. Court reporters use a stenograph machine, which uses a system of keys to record spoken words, to create a verbatim record of proceedings. Court reporters can utilize legal transcription services in order to have their court proceedings transcribed into written form. This can be helpful in a number of ways, including creating a written record of the proceedings, making it easier to review the transcript later on, and providing a written transcript to parties who were not able to attend the court proceedings.</t>
+          <t>A court reporter is an individual who records and transcribes court proceedings. Court reporters use a special type of shorthand to take down verbatim transcripts of what is said in court. These transcripts can be used as evidence in legal proceedings. A court reporter is a legal professional who specializes in creating transcripts of court proceedings. Other legal professionals, such as lawyers and judges, may rely on court reporters to create accurate records of what was said during a court case. There are a number of ways that court reporters can utilize legal transcription services. First, court reporters can use transcription services to create transcripts of court proceedings. This can be useful for creating a record of what was said during a court case, or for creating a transcript for appeal purposes. Additionally, court reporters can use transcription services to create transcripts of depositions. This can be helpful for creating a record of what was said during a deposition, or for creating a transcript for use in future court proceedings.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Legal transcription services are an invaluable tool for court reporters and other legal professionals. Court reporters are the only legal professionals who use two-way shorthand to create a word-for-word transcript of courtroom proceedings. However, court reporters are also often called upon to create transcripts of proceedings in other settings such as business meetings and conferences. In order to do so, they use a stenograph machine, which employs a system of keys to record spoken words, to create a verbatim record of the proceedings.
-For court reporters, legal transcription services can be extremely beneficial. Having your court proceedings transcribed into written form can help in a variety of ways. First and foremost, it creates an easily accessible written record of the proceedings which can be accessed later on for review. Additionally, it can also provide a written transcript to parties who were unable to attend the court proceedings.
-Capital Typing provides comprehensive legal transcription services for court reporters. We understand the importance of accuracy and detail in court</t>
+          <t>Legal transcription services can be a valuable resource for court reporters. Court reporters are legal professionals who specialize in creating transcripts of court proceedings. They use a special type of shorthand to take down verbatim transcripts of what is said in court, which can be used as evidence in legal proceedings. Transcription services can provide court reporters with an efficient and accurate way to transcribe court proceedings and depositions.
+At Capital Typing, we provide legal transcription services for court reporters. Our services are designed to help court reporters create accurate records of court proceedings and depositions. We utilize the latest technology and experienced transcriptionists to ensure that your transcripts are accurate and of the highest quality.
+Our transcription services are tailored to the specific needs of court reporters. We can provide you with transcripts of court proceedings and depositions quickly and efficiently. Our experienced transcriptionists can transcribe in a variety of legal formats, including audio, video, and handwritten documents. We can also produce transcripts in a variety</t>
         </is>
       </c>
     </row>
@@ -871,12 +870,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Services to Your Company
-There are many reasons why a company decides to outsource its transcription. However, the overall main goal is to save on costs. With an expertise team in transcription, you can be assured quality with the least amount of time and effort out of your employees. The flexibility of our team can enable you to keep up with your business goals while leaving all transcription needs to us.
-We Offer Various Types of Transcription Services for Businesses
-Transcription is an important service that companies provide. Finest Typists Transcription services allow businesses to produce quality documents that can be legally binding. We offer all types of transcription service style that businesses require. Here is a table with all the services that we currently provide.
-Type Level of Accuracy Transcription Services Type I High Rate Medication Administration Operations type II Medium Rate Courtroom and Teleconference type III Low Rate Students’ note and Group discussio
-Does Your Business Need Transcription Services?</t>
+          <t>Services by Smart Transcribe
+As a freelance transcriptionist, I find dealing with multiple projects and clients quite a stressful task. Smart Transcribe have been extremely helpful in reducing this stress within my job. While they are always quick to respond to any of my requests, I have also found that they are extremely good at matching me to transcriptions that are within my range of abilities. As a result, I am very happy with the work that I have done for Smart Transcribe and the relationships I have formed with the company.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -886,8 +881,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>to market-leader Martech Cube for your content marketing efforts, podcasts, webinars and tutorials.
- steadman</t>
+          <t>There are quite a few reasons why some businesses choose to outsource transcription services. The savings in terms of both time and money is significant. Here we will explore some of the many benefits of outsourcing transcription services.
+The benefit of savings in terms of time is that businesses can redirect their energies to other tasks that invaluable. The time savings can really add up and help a business to get back on track.
+Another huge benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
+Transcription services can provide a wide variety of benefits. These benefits can be discovered by exploring the different types of services that outsourcing provides. With the increased accuracy that outsourcing provides, businesses can get back on track and improve their bottom line.
+Outsourcing can save businesses time and money and help to improve the overall quality</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -898,19 +896,9 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Services
-Short-Term Tech Fixes Won't Fix the Nursing Shortage | Staffing Industry Analysts
-golden-standard-2019- Enablement, border2 point, AR
-Get Best Audio Transcription Services
-Banner Document Management
-langTrans Demo CD
-datascientists4health
-Best Medical Transcription Services
-Index of /wp-content/uploads/2016/07 .
-We Achieve 99.99% Accuracy!
-Open Briefing: Dry run: gamifying transparency to test interesting nuggets from intelligence reports
-Next time you would like a quote of accurate transcription services at the lowest price per minute, give me a call at 1 (877) 363 7399 or email me Harish ...
-Voicing's an essential part of your performance.
-Our high audio transcriptions are the state of art as well as it has been reviewed by technological expert for leave no error to protect your documents ...</t>
+A recent survey has found that the larger majority of employees working in corporate circles have a preference for working for companies that outsource transcription services. This means that companies are very interested in maintaining a successful image in the eyes of their employees. Therefore, compared to other companies that still hold onto their internalized transcription services, those that outsource transcription services are considered a better bet for career advancement.
+As a fertilizer for career growth, corporate transcription services are very useful. A recent study showed that compelling speech at conferences is two to three times more effective at getting ideas across than written messages. This means that corporate transcription services can help increase knowledge retention and boost effective communication in the workplace. Since successful communication is primary to effective learning, the impact of corporate transcription services is evident.
+Written transcription services have specific purposes and benefits. TheyLondon Private investigators can be used to record business meetings, transcribe speeches and yearly reports, and transcribe lectures. The availability of transcription services will make</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -921,7 +909,16 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>Services
-Any business looking to outsource transcription services, whether it be legal transcription services or medical transcription services, wants to know what measures are in place to protect their data security and confidentiality. There are a variety of ways that your transcription company can protect your data, including:</t>
+When you outsource transcription services to a third-party provider, you are relying on that provider to keep your information confidential. The transcription services company should have implementing security measures to protect your confidential information. The security measures might include the following:
+All employees are required to sign confidentiality agreements.
+All employees undergo criminal background checks prior to being hired.
+All employees are trained to handle and protect confidential information.
+Security as an employee is allowed access to a specific transcription services job.
+Recorded phone calls/conversations are protected per confidentiality agreement.
+Paper copies of transcripts are transmitted using physical securityring mail only.
+Auditing procedures in place to help ensure data security.
+Data management procedures and secure document sharing when you outsource transcription services.
+Transcription services companies use secure file sharing/transmission services and have strict rules about how files are to be transmitted (two-factor authentication, encryption, etc.).</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -969,34 +966,33 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Services to Your Company
-There are many reasons why a company decides to outsource its transcription. However, the overall main goal is to save on costs. With an expertise team in transcription, you can be assured quality with the least amount of time and effort out of your employees. The flexibility of our team can enable you to keep up with your business goals while leaving all transcription needs to us.
-We Offer Various Types of Transcription Services for Businesses
-Transcription is an important service that companies provide. Finest Typists Transcription services allow businesses to produce quality documents that can be legally binding. We offer all types of transcription service style that businesses require. Here is a table with all the services that we currently provide.
-Type Level of Accuracy Transcription Services Type I High Rate Medication Administration Operations type II Medium Rate Courtroom and Teleconference type III Low Rate Students’ note and Group discussio
-Does Your Business Need Transcription Services? to market-leader Martech Cube for your content marketing efforts, podcasts, webinars and tutorials.
- steadman Services
-Short-Term Tech Fixes Won't Fix the Nursing Shortage | Staffing Industry Analysts
-golden-standard-2019- Enablement, border2 point, AR
-Get Best Audio Transcription Services
-Banner Document Management
-langTrans Demo CD
-datascientists4health
-Best Medical Transcription Services
-Index of /wp-content/uploads/2016/07 .
-We Achieve 99.99% Accuracy!
-Open Briefing: Dry run: gamifying transparency to test interesting nuggets from intelligence reports
-Next time you would like a quote of accurate transcription services at the lowest price per minute, give me a call at 1 (877) 363 7399 or email me Harish ...
-Voicing's an essential part of your performance.
-Our high audio transcriptions are the state of art as well as it has been reviewed by technological expert for leave no error to protect your documents ... Services
-Any business looking to outsource transcription services, whether it be legal transcription services or medical transcription services, wants to know what measures are in place to protect their data security and confidentiality. There are a variety of ways that your transcription company can protect your data, including:</t>
+          <t>Services by Smart Transcribe
+As a freelance transcriptionist, I find dealing with multiple projects and clients quite a stressful task. Smart Transcribe have been extremely helpful in reducing this stress within my job. While they are always quick to respond to any of my requests, I have also found that they are extremely good at matching me to transcriptions that are within my range of abilities. As a result, I am very happy with the work that I have done for Smart Transcribe and the relationships I have formed with the company. There are quite a few reasons why some businesses choose to outsource transcription services. The savings in terms of both time and money is significant. Here we will explore some of the many benefits of outsourcing transcription services.
+The benefit of savings in terms of time is that businesses can redirect their energies to other tasks that invaluable. The time savings can really add up and help a business to get back on track.
+Another huge benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
+Transcription services can provide a wide variety of benefits. These benefits can be discovered by exploring the different types of services that outsourcing provides. With the increased accuracy that outsourcing provides, businesses can get back on track and improve their bottom line.
+Outsourcing can save businesses time and money and help to improve the overall quality Services
+A recent survey has found that the larger majority of employees working in corporate circles have a preference for working for companies that outsource transcription services. This means that companies are very interested in maintaining a successful image in the eyes of their employees. Therefore, compared to other companies that still hold onto their internalized transcription services, those that outsource transcription services are considered a better bet for career advancement.
+As a fertilizer for career growth, corporate transcription services are very useful. A recent study showed that compelling speech at conferences is two to three times more effective at getting ideas across than written messages. This means that corporate transcription services can help increase knowledge retention and boost effective communication in the workplace. Since successful communication is primary to effective learning, the impact of corporate transcription services is evident.
+Written transcription services have specific purposes and benefits. TheyLondon Private investigators can be used to record business meetings, transcribe speeches and yearly reports, and transcribe lectures. The availability of transcription services will make Services
+When you outsource transcription services to a third-party provider, you are relying on that provider to keep your information confidential. The transcription services company should have implementing security measures to protect your confidential information. The security measures might include the following:
+All employees are required to sign confidentiality agreements.
+All employees undergo criminal background checks prior to being hired.
+All employees are trained to handle and protect confidential information.
+Security as an employee is allowed access to a specific transcription services job.
+Recorded phone calls/conversations are protected per confidentiality agreement.
+Paper copies of transcripts are transmitted using physical securityring mail only.
+Auditing procedures in place to help ensure data security.
+Data management procedures and secure document sharing when you outsource transcription services.
+Transcription services companies use secure file sharing/transmission services and have strict rules about how files are to be transmitted (two-factor authentication, encryption, etc.).</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>For any business looking to outsource transcription services, there are a few key things they need to consider. First and foremost, they need to ensure that the transcription company they are using can guarantee the security and confidentiality of their data. This is essential as any information which is shared with the transcription company should remain secure and confidential.
-To ensure that data security and confidentiality are maintained, transcription companies can employ a variety of measures. These can include encrypting data, limiting access to data, and providing contractual agreements that ensure data is not shared with any other parties. Additionally, transcription companies should have protocols in place which allow for the secure storage and retrieval of data, as well as procedures for the secure destruction of data once it is no longer needed.
-The transcription company should also provide accurate and timely transcription services, as this is key to ensuring the business is able to meet its goals. At Finest Typists Transcription, we offer various types of transcription services, ranging from high</t>
+          <t>Businesses have found that outsourcing transcription services can save them both time and money. In addition to saving money, transcription services help to reduce turnover rates and promote better communication in the workplace. When done properly, outsourcing transcription services can provide a variety of benefits.
+One of the biggest benefits of outsourcing transcription services is the time savings that it can provide. When businesses outsource transcription services, they can redirect their energies to other tasks that are invaluable. This time savings can really add up and help a business to get back on track.
+Another benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
+In addition to the financial benefits that transcription services can provide, they can also help to improve the overall quality of communication in the workplace. A recent survey has found that the larger majority of employees working in corporate</t>
         </is>
       </c>
     </row>

--- a/data/flask_output_file.xlsx
+++ b/data/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law refers to the laws and regulations that govern the ownership, lease, and use of real property. Real estate law generally covers issues such as title registration, zoning, and landlord-tenant rights.</t>
+          <t>Real estate law is a branch of civil law that covers the right to possess, use, and enjoy land and the permanent man-made additions attached to it.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with physical property, whereas other legal professions may deal with intangible property, like copyrights or patents. Additionally, real estate law is usually geographically specific, meaning that lawyers need to be familiar with the laws of the jurisdiction in which they practice. Finally, real estate law often involves complex transactions, and lawyers must be able to navigate these transactions in order to protect their clients' interests.</t>
+          <t>Most real estate law is state law, which means that real estate lawyers must know the law of the state in which they practice. In addition, real estate lawyers must know about title insurance, zoning, and environmental law.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The answer may vary depending on which country you are asking about, but in general, real estate lawyers are involved in any legal issues related to real estate, such as buying, selling, leasing, and zoning.</t>
+          <t>A real estate lawyer is a type of lawyer who specializes in real estate law. Real estate lawyers help their clients with a variety of legal issues that relate to real estate, such as buying or selling property, landlord-tenant disputes, and property ownership disputes.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>There are many aspects to real estate law. By specializing in this area, attorneys can become experts in the field and provide more comprehensive and clients. Additionally, real estate law is a complex and ever-changing area of the law, so specializing in this field can help attorneys stay abreast of the latest changes and developments.</t>
+          <t>Real estate law is helpful in the legal profession because it deals with a specific area of law. This area of law deals with the buying, selling, and leasing of property.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>There are a number of different types of real estate law transcription that can be useful, including contract law, property law, and title law. Transcription can also be useful for other aspects of real estate law, such as zoning law and environmental law.</t>
+          <t>The legal transcription of real estate law can be useful for a number of different areas, including:
+-Property law
+-Landlord-tenant law
+-Real estate contracts
+-Mortgages
+-Deeds
+-Leases
+-Evictions
+-Foreclosures
+-Zoning</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +727,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are various ways in which real estate lawyers can utilize transcription. For instance, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be extremely useful for lawyers who need to review the details of a transaction at a later date. Additionally, transcription can also be used to create a record of all the documents that are signed during a real estate transaction. This can be useful for lawyers who need to review the documents at a later date.</t>
+          <t>There are many ways that real estate lawyers can utilize transcription. One way is to use it to create transcripts of important meetings, such as offer meetings, agent meetings, or escrow meetings. This can provide a written record of what was said during the meeting, which can be useful for reference or for creating minutes. Another way that real estate lawyers can use transcription is to create transcripts of property inspections. This can be helpful for documenting the condition of the property and any repairs that need to be made.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,14 +771,23 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law refers to the laws and regulations that govern the ownership, lease, and use of real property. Real estate law generally covers issues such as title registration, zoning, and landlord-tenant rights. Real estate law is different from other legal professions in a few ways. One way is that real estate law generally deals with physical property, whereas other legal professions may deal with intangible property, like copyrights or patents. Additionally, real estate law is usually geographically specific, meaning that lawyers need to be familiar with the laws of the jurisdiction in which they practice. Finally, real estate law often involves complex transactions, and lawyers must be able to navigate these transactions in order to protect their clients' interests. The answer may vary depending on which country you are asking about, but in general, real estate lawyers are involved in any legal issues related to real estate, such as buying, selling, leasing, and zoning. There are many aspects to real estate law. By specializing in this area, attorneys can become experts in the field and provide more comprehensive and clients. Additionally, real estate law is a complex and ever-changing area of the law, so specializing in this field can help attorneys stay abreast of the latest changes and developments. There are a number of different types of real estate law transcription that can be useful, including contract law, property law, and title law. Transcription can also be useful for other aspects of real estate law, such as zoning law and environmental law. There are various ways in which real estate lawyers can utilize transcription. For instance, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be extremely useful for lawyers who need to review the details of a transaction at a later date. Additionally, transcription can also be used to create a record of all the documents that are signed during a real estate transaction. This can be useful for lawyers who need to review the documents at a later date.</t>
+          <t>Real estate law is a branch of civil law that covers the right to possess, use, and enjoy land and the permanent man-made additions attached to it. Most real estate law is state law, which means that real estate lawyers must know the law of the state in which they practice. In addition, real estate lawyers must know about title insurance, zoning, and environmental law. A real estate lawyer is a type of lawyer who specializes in real estate law. Real estate lawyers help their clients with a variety of legal issues that relate to real estate, such as buying or selling property, landlord-tenant disputes, and property ownership disputes. Real estate law is helpful in the legal profession because it deals with a specific area of law. This area of law deals with the buying, selling, and leasing of property. The legal transcription of real estate law can be useful for a number of different areas, including:
+-Property law
+-Landlord-tenant law
+-Real estate contracts
+-Mortgages
+-Deeds
+-Leases
+-Evictions
+-Foreclosures
+-Zoning There are many ways that real estate lawyers can utilize transcription. One way is to use it to create transcripts of important meetings, such as offer meetings, agent meetings, or escrow meetings. This can provide a written record of what was said during the meeting, which can be useful for reference or for creating minutes. Another way that real estate lawyers can use transcription is to create transcripts of property inspections. This can be helpful for documenting the condition of the property and any repairs that need to be made.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate law is an important and complex field that requires lawyers to understand the laws in the jurisdiction in which they practice. With such an intricate and ever-changing area of the law, it’s essential for real estate lawyers to stay abreast of the latest changes and developments. For this reason, real estate lawyers can benefit greatly from legal transcription services.
-Legal transcription services are useful for a number of real estate law-related tasks. For instance, transcription can be used to create a record of all the documents that are signed during a real estate transaction. This can help lawyers review and keep track of the details of a transaction at a later date. Additionally, lawyers can use transcription to create a record of all the key points that are discussed during a real estate transaction. This can be useful for lawyers who need to review the details of a transaction at a later date.
-Furthermore, legal transcription services can also be used for other aspects of real estate law, such</t>
+          <t>Real estate law is a complex field of law that encompasses the rights to possess, use, and enjoy land and the permanent man-made structures attached to it. Since real estate law is largely governed by state law, real estate lawyers must be knowledgeable of the specific laws of the state in which they practice. In addition, real estate lawyers must understand title insurance, zoning, and environmental law.
+If you are a real estate lawyer, you may find legal transcription services to be a valuable tool in your practice. Legal transcription services can help you to create transcripts of important meetings, such as offer meetings, agent meetings, or escrow meetings. This can provide a written record of the conversations that took place during the meeting, which can be useful for reference or for creating minutes. Additionally, legal transcription can be used to create transcripts of property inspections, which can be helpful for documenting the condition of the property and any repairs that need to be made. 
+At Capital Typing,</t>
         </is>
       </c>
     </row>
@@ -781,7 +799,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is an individual who records and transcribes court proceedings. Court reporters use a special type of shorthand to take down verbatim transcripts of what is said in court. These transcripts can be used as evidence in legal proceedings.</t>
+          <t>A court reporter is an official who uses shorthand or other methods to transcribe judicial proceedings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +809,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who specializes in creating transcripts of court proceedings. Other legal professionals, such as lawyers and judges, may rely on court reporters to create accurate records of what was said during a court case.</t>
+          <t>A court reporter is different from other legal professionals because they are specifically trained to take down verbatim transcriptions of court proceedings. This means that they have to be able to type extremely quickly and accurately in order to keep up with the proceedings. Court reporters also often have to be able to create audio or video recordings of proceedings in addition to taking down the transcripts.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -801,7 +819,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>There are a number of ways that court reporters can utilize legal transcription services. First, court reporters can use transcription services to create transcripts of court proceedings. This can be useful for creating a record of what was said during a court case, or for creating a transcript for appeal purposes. Additionally, court reporters can use transcription services to create transcripts of depositions. This can be helpful for creating a record of what was said during a deposition, or for creating a transcript for use in future court proceedings.</t>
+          <t>There are many ways that court reporters can utilize legal transcription services. They can use them to transcribe witness testimony, court proceedings, and deposition transcripts.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -851,14 +869,15 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is an individual who records and transcribes court proceedings. Court reporters use a special type of shorthand to take down verbatim transcripts of what is said in court. These transcripts can be used as evidence in legal proceedings. A court reporter is a legal professional who specializes in creating transcripts of court proceedings. Other legal professionals, such as lawyers and judges, may rely on court reporters to create accurate records of what was said during a court case. There are a number of ways that court reporters can utilize legal transcription services. First, court reporters can use transcription services to create transcripts of court proceedings. This can be useful for creating a record of what was said during a court case, or for creating a transcript for appeal purposes. Additionally, court reporters can use transcription services to create transcripts of depositions. This can be helpful for creating a record of what was said during a deposition, or for creating a transcript for use in future court proceedings.</t>
+          <t>A court reporter is an official who uses shorthand or other methods to transcribe judicial proceedings. A court reporter is different from other legal professionals because they are specifically trained to take down verbatim transcriptions of court proceedings. This means that they have to be able to type extremely quickly and accurately in order to keep up with the proceedings. Court reporters also often have to be able to create audio or video recordings of proceedings in addition to taking down the transcripts. There are many ways that court reporters can utilize legal transcription services. They can use them to transcribe witness testimony, court proceedings, and deposition transcripts.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Legal transcription services can be a valuable resource for court reporters. Court reporters are legal professionals who specialize in creating transcripts of court proceedings. They use a special type of shorthand to take down verbatim transcripts of what is said in court, which can be used as evidence in legal proceedings. Transcription services can provide court reporters with an efficient and accurate way to transcribe court proceedings and depositions.
-At Capital Typing, we provide legal transcription services for court reporters. Our services are designed to help court reporters create accurate records of court proceedings and depositions. We utilize the latest technology and experienced transcriptionists to ensure that your transcripts are accurate and of the highest quality.
-Our transcription services are tailored to the specific needs of court reporters. We can provide you with transcripts of court proceedings and depositions quickly and efficiently. Our experienced transcriptionists can transcribe in a variety of legal formats, including audio, video, and handwritten documents. We can also produce transcripts in a variety</t>
+          <t>Court reporters are a vital part of the legal system, providing verbatim transcriptions of court proceedings. They require specialized training in order to accurately and quickly take down the words spoken in the courtroom. In addition to transcribing proceedings, court reporters may also be responsible for creating audio or video recordings of proceedings. 
+Given the complexity of their role, court reporters need reliable transcription services to support their work. Capital Typing offers comprehensive legal transcription services for court reporters, allowing them to quickly and accurately transcribe witness testimony, court proceedings, and deposition transcripts.
+Capital Typing provides experienced transcribers who understand the legal system and the unique needs of court reporters. Their transcriptionists are reliable, accurate, and can quickly transcribe documents, allowing court reporters to focus on their primary responsibilities. 
+Capital Typing is committed to providing court reporters with the most accurate and efficient legal transcription services. Their team of transcribers is well-trained and experienced in the legal</t>
         </is>
       </c>
     </row>
@@ -870,8 +889,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Services by Smart Transcribe
-As a freelance transcriptionist, I find dealing with multiple projects and clients quite a stressful task. Smart Transcribe have been extremely helpful in reducing this stress within my job. While they are always quick to respond to any of my requests, I have also found that they are extremely good at matching me to transcriptions that are within my range of abilities. As a result, I am very happy with the work that I have done for Smart Transcribe and the relationships I have formed with the company.</t>
+          <t>August 10, 2008 | Hayley Halpin Medical transcription is a time-consuming task and often requires a high degree of expertise. This has led to many businesses using transcription outsourcing as a means of increasing efficiency without increasing costs. The doctors, interviewers, or other speakers mail or e-mail their audio files to the transcriptionist, who then transcribes them into a word… Continue Reading →
+It Real</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -881,11 +900,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>There are quite a few reasons why some businesses choose to outsource transcription services. The savings in terms of both time and money is significant. Here we will explore some of the many benefits of outsourcing transcription services.
-The benefit of savings in terms of time is that businesses can redirect their energies to other tasks that invaluable. The time savings can really add up and help a business to get back on track.
-Another huge benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
-Transcription services can provide a wide variety of benefits. These benefits can be discovered by exploring the different types of services that outsourcing provides. With the increased accuracy that outsourcing provides, businesses can get back on track and improve their bottom line.
-Outsourcing can save businesses time and money and help to improve the overall quality</t>
+          <t>to save money
+There are many benefits of outsourcing transcription services if you are looking to reduce your overall costs. This type of service can save you both time and money, and it can also provide you with a higher quality finished product. Below is a look at some of the main benefits of outsourcing your needs:
+1. Save time
+One of the biggest advantages of outsourcing transcription services is that it can save you a lot of time. This type of service can be used for a variety of tasks, including recording telephone calls, meetings, interviews, and more. Rather than transcribing these files yourself, you can simply send them to a service provider who will handle the task for you.
+2. Save money
+In addition to saving time, outsourcing transcription services can also save you money. This type of service can be very affordable, especially when compared to the cost of hiring an in-house transcriptionist. In many cases, you can even find services that offer discounts</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -896,9 +916,8 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Services
-A recent survey has found that the larger majority of employees working in corporate circles have a preference for working for companies that outsource transcription services. This means that companies are very interested in maintaining a successful image in the eyes of their employees. Therefore, compared to other companies that still hold onto their internalized transcription services, those that outsource transcription services are considered a better bet for career advancement.
-As a fertilizer for career growth, corporate transcription services are very useful. A recent study showed that compelling speech at conferences is two to three times more effective at getting ideas across than written messages. This means that corporate transcription services can help increase knowledge retention and boost effective communication in the workplace. Since successful communication is primary to effective learning, the impact of corporate transcription services is evident.
-Written transcription services have specific purposes and benefits. TheyLondon Private investigators can be used to record business meetings, transcribe speeches and yearly reports, and transcribe lectures. The availability of transcription services will make</t>
+If you work in a medical listening and transcription field, you're already aware of the importance ofaccuratera interpreting services visceral. Researchers have various ways of missile digital media Transcripts – themost popular wayis to transcribe an audio or video into text form using the machine. However, it does not capturesall the necessary information. Hence, transcription companies are embracing technology to advance their workflow.
+For every business, technological advances can influence the aspects of its processes so it is important to achievinga greater success in a short period of time. Nowadays, many audio transcription companies outsourcing transcription services are relying on different types of sophisticated technical equipment to transcription the service they provide. Moore's Lawpredicts that "processing power doubles in capacity and halves in price every 18 months". When applied in a dizzying variety of ways, it can be reviewed previrusesthat hardware prices have indeed dropped significantly over the recent years, meaning that advanced technical equipment is now more accessibility and produces better</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -908,17 +927,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Services
-When you outsource transcription services to a third-party provider, you are relying on that provider to keep your information confidential. The transcription services company should have implementing security measures to protect your confidential information. The security measures might include the following:
-All employees are required to sign confidentiality agreements.
-All employees undergo criminal background checks prior to being hired.
-All employees are trained to handle and protect confidential information.
-Security as an employee is allowed access to a specific transcription services job.
-Recorded phone calls/conversations are protected per confidentiality agreement.
-Paper copies of transcripts are transmitted using physical securityring mail only.
-Auditing procedures in place to help ensure data security.
-Data management procedures and secure document sharing when you outsource transcription services.
-Transcription services companies use secure file sharing/transmission services and have strict rules about how files are to be transmitted (two-factor authentication, encryption, etc.).</t>
+          <t>When outsourcing transcription to a company, you should always consider the security of your data and information. Make sure you understand what type of security the company has in place and what type of access they have to your data. You should also consider the type of data you are outsourcing and whether or not it is confidential or private.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,33 +975,23 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Services by Smart Transcribe
-As a freelance transcriptionist, I find dealing with multiple projects and clients quite a stressful task. Smart Transcribe have been extremely helpful in reducing this stress within my job. While they are always quick to respond to any of my requests, I have also found that they are extremely good at matching me to transcriptions that are within my range of abilities. As a result, I am very happy with the work that I have done for Smart Transcribe and the relationships I have formed with the company. There are quite a few reasons why some businesses choose to outsource transcription services. The savings in terms of both time and money is significant. Here we will explore some of the many benefits of outsourcing transcription services.
-The benefit of savings in terms of time is that businesses can redirect their energies to other tasks that invaluable. The time savings can really add up and help a business to get back on track.
-Another huge benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
-Transcription services can provide a wide variety of benefits. These benefits can be discovered by exploring the different types of services that outsourcing provides. With the increased accuracy that outsourcing provides, businesses can get back on track and improve their bottom line.
-Outsourcing can save businesses time and money and help to improve the overall quality Services
-A recent survey has found that the larger majority of employees working in corporate circles have a preference for working for companies that outsource transcription services. This means that companies are very interested in maintaining a successful image in the eyes of their employees. Therefore, compared to other companies that still hold onto their internalized transcription services, those that outsource transcription services are considered a better bet for career advancement.
-As a fertilizer for career growth, corporate transcription services are very useful. A recent study showed that compelling speech at conferences is two to three times more effective at getting ideas across than written messages. This means that corporate transcription services can help increase knowledge retention and boost effective communication in the workplace. Since successful communication is primary to effective learning, the impact of corporate transcription services is evident.
-Written transcription services have specific purposes and benefits. TheyLondon Private investigators can be used to record business meetings, transcribe speeches and yearly reports, and transcribe lectures. The availability of transcription services will make Services
-When you outsource transcription services to a third-party provider, you are relying on that provider to keep your information confidential. The transcription services company should have implementing security measures to protect your confidential information. The security measures might include the following:
-All employees are required to sign confidentiality agreements.
-All employees undergo criminal background checks prior to being hired.
-All employees are trained to handle and protect confidential information.
-Security as an employee is allowed access to a specific transcription services job.
-Recorded phone calls/conversations are protected per confidentiality agreement.
-Paper copies of transcripts are transmitted using physical securityring mail only.
-Auditing procedures in place to help ensure data security.
-Data management procedures and secure document sharing when you outsource transcription services.
-Transcription services companies use secure file sharing/transmission services and have strict rules about how files are to be transmitted (two-factor authentication, encryption, etc.).</t>
+          <t>August 10, 2008 | Hayley Halpin Medical transcription is a time-consuming task and often requires a high degree of expertise. This has led to many businesses using transcription outsourcing as a means of increasing efficiency without increasing costs. The doctors, interviewers, or other speakers mail or e-mail their audio files to the transcriptionist, who then transcribes them into a word… Continue Reading →
+It Real to save money
+There are many benefits of outsourcing transcription services if you are looking to reduce your overall costs. This type of service can save you both time and money, and it can also provide you with a higher quality finished product. Below is a look at some of the main benefits of outsourcing your needs:
+1. Save time
+One of the biggest advantages of outsourcing transcription services is that it can save you a lot of time. This type of service can be used for a variety of tasks, including recording telephone calls, meetings, interviews, and more. Rather than transcribing these files yourself, you can simply send them to a service provider who will handle the task for you.
+2. Save money
+In addition to saving time, outsourcing transcription services can also save you money. This type of service can be very affordable, especially when compared to the cost of hiring an in-house transcriptionist. In many cases, you can even find services that offer discounts Services
+If you work in a medical listening and transcription field, you're already aware of the importance ofaccuratera interpreting services visceral. Researchers have various ways of missile digital media Transcripts – themost popular wayis to transcribe an audio or video into text form using the machine. However, it does not capturesall the necessary information. Hence, transcription companies are embracing technology to advance their workflow.
+For every business, technological advances can influence the aspects of its processes so it is important to achievinga greater success in a short period of time. Nowadays, many audio transcription companies outsourcing transcription services are relying on different types of sophisticated technical equipment to transcription the service they provide. Moore's Lawpredicts that "processing power doubles in capacity and halves in price every 18 months". When applied in a dizzying variety of ways, it can be reviewed previrusesthat hardware prices have indeed dropped significantly over the recent years, meaning that advanced technical equipment is now more accessibility and produces better When outsourcing transcription to a company, you should always consider the security of your data and information. Make sure you understand what type of security the company has in place and what type of access they have to your data. You should also consider the type of data you are outsourcing and whether or not it is confidential or private.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Businesses have found that outsourcing transcription services can save them both time and money. In addition to saving money, transcription services help to reduce turnover rates and promote better communication in the workplace. When done properly, outsourcing transcription services can provide a variety of benefits.
-One of the biggest benefits of outsourcing transcription services is the time savings that it can provide. When businesses outsource transcription services, they can redirect their energies to other tasks that are invaluable. This time savings can really add up and help a business to get back on track.
-Another benefit of outsourcing transcription services is the reduction in turnover rates. With the increased accuracy that transcription services provide, businesses can keep better track of their turnover rates. This means that businesses can make more money and keep their customers happy.
-In addition to the financial benefits that transcription services can provide, they can also help to improve the overall quality of communication in the workplace. A recent survey has found that the larger majority of employees working in corporate</t>
+          <t>Outsourcing transcription services can be a great way to save time and money for any business. It can be used for a variety of tasks such as recording phone calls, meetings, interviews, and more. By outsourcing these services, businesses can access a higher quality finished product without having to spend time and resources on transcribing the files themselves.
+The first benefit of outsourcing transcription services is that it can save time. This type of service is incredibly efficient and can be used to quickly and accurately transcribe audio files into text. By outsourcing this service, businesses can save time and energy that would otherwise be spent on transcribing the files themselves.
+In addition to saving time, outsourcing transcription services can also save money. It is often much more affordable than hiring an in-house transcriptionist, and many services also offer discounts. This can be a great way to cut costs without sacrificing quality.
+Another benefit of outsourcing transcription services is that it can provide businesses with a higher quality</t>
         </is>
       </c>
     </row>
